--- a/regionseng/9/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/9/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -291,6 +291,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -370,8 +373,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1"/>
@@ -677,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -689,7 +693,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.45" customHeight="1">
+    <row r="1" spans="1:19" ht="24" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -734,7 +738,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="12.6" customHeight="1">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="20">
         <v>2009</v>
       </c>
@@ -755,7 +759,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="12.6" customHeight="1">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="20">
         <v>2010</v>
       </c>
@@ -776,7 +780,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="12.6" customHeight="1">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="20">
         <v>2011</v>
       </c>
@@ -797,7 +801,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="12.6" customHeight="1">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="20">
         <v>2012</v>
       </c>
@@ -818,7 +822,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="12.6" customHeight="1">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="20">
         <v>2013</v>
       </c>
@@ -839,7 +843,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="12.6" customHeight="1">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="20">
         <v>2014</v>
       </c>
@@ -860,7 +864,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="12.6" customHeight="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="20">
         <v>2015</v>
       </c>
@@ -881,104 +885,104 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:19" ht="12.6" customHeight="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="20">
         <v>2016</v>
       </c>
       <c r="B12" s="26">
-        <v>3616.0146000000009</v>
+        <v>3616.0146000000004</v>
       </c>
       <c r="C12" s="26">
-        <v>2183.903600000001</v>
+        <v>2183.903800000001</v>
       </c>
       <c r="D12" s="26">
-        <v>-3536.0464999999999</v>
+        <v>-3536.0466000000019</v>
       </c>
       <c r="E12" s="26">
-        <v>1157.8143</v>
+        <v>1157.8145</v>
       </c>
       <c r="F12" s="27">
-        <v>3421.686000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="12.6" customHeight="1">
+        <v>3421.6862999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="20">
         <v>2017</v>
       </c>
-      <c r="B13" s="21">
-        <v>2446.0534000000007</v>
-      </c>
-      <c r="C13" s="21">
-        <v>6427.7942000000021</v>
-      </c>
-      <c r="D13" s="21">
-        <v>2577.6760999999997</v>
-      </c>
-      <c r="E13" s="21">
-        <v>985.76999999999987</v>
-      </c>
-      <c r="F13" s="22">
-        <v>12437.293700000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="12.6" customHeight="1">
+      <c r="B13" s="26">
+        <v>2446.052999999999</v>
+      </c>
+      <c r="C13" s="26">
+        <v>6427.7941000000001</v>
+      </c>
+      <c r="D13" s="26">
+        <v>2577.6761000000001</v>
+      </c>
+      <c r="E13" s="26">
+        <v>985.77009999999996</v>
+      </c>
+      <c r="F13" s="27">
+        <v>12437.293299999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="20">
         <v>2018</v>
       </c>
-      <c r="B14" s="21">
-        <v>-2466.6577000000007</v>
-      </c>
-      <c r="C14" s="21">
-        <v>509.94019999999989</v>
-      </c>
-      <c r="D14" s="21">
-        <v>-3900.2434000000003</v>
-      </c>
-      <c r="E14" s="21">
-        <v>-2380.7306000000008</v>
-      </c>
-      <c r="F14" s="22">
-        <v>-8237.6915000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.6" customHeight="1">
+      <c r="B14" s="26">
+        <v>-2466.6575000000016</v>
+      </c>
+      <c r="C14" s="26">
+        <v>509.9401000000002</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-3900.2428000000023</v>
+      </c>
+      <c r="E14" s="26">
+        <v>-2380.7302999999993</v>
+      </c>
+      <c r="F14" s="27">
+        <v>-8237.6905000000024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="20">
         <v>2019</v>
       </c>
       <c r="B15" s="21">
-        <v>-677.89330000000086</v>
+        <v>-677.89340000000072</v>
       </c>
       <c r="C15" s="21">
-        <v>-513.05850000000021</v>
+        <v>-482.75840000000011</v>
       </c>
       <c r="D15" s="21">
-        <v>111.45649999999995</v>
+        <v>111.45649999999985</v>
       </c>
       <c r="E15" s="21">
-        <v>3339.8514999999984</v>
+        <v>3339.8515000000007</v>
       </c>
       <c r="F15" s="22">
-        <v>2260.3561999999974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="12.6" customHeight="1">
+        <v>2290.6561999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="20">
         <v>2020</v>
       </c>
       <c r="B16" s="21">
-        <v>-328.5759000000001</v>
+        <v>-328.57590000000005</v>
       </c>
       <c r="C16" s="21">
-        <v>138.71199999999996</v>
+        <v>138.71170000000006</v>
       </c>
       <c r="D16" s="21">
-        <v>-3948.4147999999991</v>
+        <v>-3948.4148000000009</v>
       </c>
       <c r="E16" s="21">
-        <v>-656.91279999999961</v>
+        <v>-656.91289999999992</v>
       </c>
       <c r="F16" s="22">
-        <v>-4795.191499999999</v>
+        <v>-4795.1919000000007</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -986,19 +990,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="21">
-        <v>610.82309999999995</v>
+        <v>1410.8231999999998</v>
       </c>
       <c r="C17" s="21">
-        <v>1716.4245999999991</v>
+        <v>1716.4245999999998</v>
       </c>
       <c r="D17" s="21">
-        <v>1242.797</v>
+        <v>1257.8604</v>
       </c>
       <c r="E17" s="21">
-        <v>-2424.6232</v>
+        <v>-2338.9217999999996</v>
       </c>
       <c r="F17" s="22">
-        <v>1145.421499999999</v>
+        <v>2046.1864</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1023,19 +1027,23 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="20" t="s">
-        <v>14</v>
+      <c r="A18" s="20">
+        <v>2022</v>
       </c>
       <c r="B18" s="21">
-        <v>-983.09230000000036</v>
+        <v>-125.81169999999929</v>
       </c>
       <c r="C18" s="21">
-        <v>2567.8585000000003</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+        <v>3333.7335999999982</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-3299.9102999999991</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1165.8817999999992</v>
+      </c>
       <c r="F18" s="22">
-        <v>1584.7662</v>
+        <v>1073.893399999999</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -1060,14 +1068,24 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="21">
+        <v>188.62589999999997</v>
+      </c>
+      <c r="C19" s="21">
+        <v>5111.7992999999988</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1976.8332999999998</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1074.7415999999994</v>
+      </c>
+      <c r="F19" s="22">
+        <v>8352.0000999999975</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1091,22 +1109,28 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="A20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="21">
+        <v>400.50229999999982</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22">
+        <v>400.50229999999982</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -1120,24 +1144,24 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="A21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -1151,24 +1175,22 @@
       <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -1182,8 +1204,8 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="18" t="s">
-        <v>8</v>
+      <c r="A23" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1214,7 +1236,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1245,7 +1267,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1275,7 +1297,9 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1303,25 +1327,25 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" spans="1:27" ht="49.9" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+    <row r="27" spans="1:27">
+      <c r="A27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -1335,22 +1359,22 @@
       <c r="AA27" s="11"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -1363,23 +1387,25 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+    <row r="29" spans="1:27" ht="49.9" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
@@ -1421,12 +1447,70 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regionseng/9/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/9/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1115,11 +1115,13 @@
       <c r="B20" s="21">
         <v>400.50229999999982</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="21">
+        <v>-2894.6030999999998</v>
+      </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22">
-        <v>400.50229999999982</v>
+        <v>-2494.1008000000002</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
